--- a/QuizLink_Excel/Quiz_Links.xlsx
+++ b/QuizLink_Excel/Quiz_Links.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
   <si>
     <t>QuizLinks</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>http://localhost:4034/Quiz/Index/CaEZsqWvXR6Bh8UVVwqHgw==/zE0V3uBhm4t68VMsi9kkSSilwzjb2g58fFj5-Br2OgE=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/CLrUpGj-eFNB51HFk2xXkA==/ep1CIQeSy8WJR3WZPFKJYfdUd2UNwVIdJrK4zV04QnU=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/e83qvMJQNYSWwwlan0d4lQ==/SIee5-DuUNrzcN2dgNEtqZxWlot%20nbtIFGBp2t6IWIE=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/uHfctRY3IQaCSkq5hJs9Eg==/%20A3VZO6QJaUwGxQ3yyvzSCsjYkB90oUqeP5pVvMIQak=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/uztYZ1eBnPrQC0gAVXxWvA==/zb9mzjaTBsp0%20wFtjUCw49yjAJz%20lGMW1PvkpDX7wMU=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/d%20olQXUV2d-qz0JM0H0THA==/ifxbLAyRKHWV9Pn1CJ1zrK44vCjc14bBVbHKmDKdpCs=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/q5LbsxOCYUT%20r5COS7sK3w==/PRxfxJVN3mA4jxuRKUQWxapSFrG3RGBDg%204jnpFHT0s=</t>
   </si>
 </sst>
 </file>
@@ -440,7 +458,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1">

--- a/QuizLink_Excel/Quiz_Links.xlsx
+++ b/QuizLink_Excel/Quiz_Links.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
   <si>
     <t>QuizLinks</t>
   </si>
@@ -85,6 +85,105 @@
   </si>
   <si>
     <t>http://localhost:4034/Quiz/Index/q5LbsxOCYUT%20r5COS7sK3w==/PRxfxJVN3mA4jxuRKUQWxapSFrG3RGBDg%204jnpFHT0s=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/ttaEO5YhZQrpxuZRDJAWhw==/VWBBwW4Ycd4FXn3d8LDp1EFkEoRPolU33Jn5lcqSymo=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/yjhqfQrSoFipauNk9jBdWA==/%201U4jQeDRG-Zn4bh4U9Y8izhY1cg3S7nCX4WjAGM5HM=</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/6YiXPV4-RP5xa9NYZcZv0A==/6O-Vwq5HNVWEGF3BOocYREMYG%20QrGOrcG3f3LLWoK0s=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/YQMVJb6Dsu3DVeY75XKGZg==/7hkqon9EKW1tCSv-rxiN8FfZZakaN4a%20c3pvX1oQ2TQ=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/7G9fNbMF9G8nYsJfDpWNvA==/6basAKRIroHzIBsY52ClSgHF6a0n4btVsRpqrCBjnz4=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/dGd62NCa14oxZOw9iYc7QQ==/GsvFIs4lgF4ClX5vWbjn4Tuh0w%207Ph%202%20azF0X2-v8o=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/C8Wq-6ayI-110joa6qn77g==/bMlvpPIkVIGfE8PadjV3EWaP8JgT4GXNaGNOzrrEiis=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/wQoP-oLySU3xKfQc3Uks0A==/HVvan85s0TgpUl78P%20EZ-uPtuuuFlawn9y1mt%2098rAc=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/pg21Z%20BmmfV%20Usy4x4rByw==/LxIYzkpZ8d22g8%20XI5pGGe2bpWqefvBjExzHWU4emEQ=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/fAfyrzIj4eDxU90DSw-hQA==/HPunHKKg3v3DAix2vtsYIvn%20FBcWnSEUDzdjLEfRX1k=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/90SSNC8Vl6adCdlUogkuqg==/CdUKvwqfyeHTgfUO5A-131ncFG-BH-4vMIety7ZohRo=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/uWRiTmA4l6DOZGwgPwOKaw==/opy-0mbuUvFjhQOWF97lYBTA%20xN8yBK4qkEaUEUAGnY=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/N1hIEPS9ob8aoVONwJJ7zw==/qfyK4MVkMpSfsfkcB7mMhIFPemxVaSIZTHTFN60lbgM=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/nvahqTqDZP-3B76FZ7byHA==/9IskJbnJcSlqdtGfr05s8JnBbLTSuE2WlGwzfluXegk=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/GKcccsCx3%202iGGWV4Zoe3A==/1Jfu1DQfQLy3899nMxyTmmGOn2HHvrOipxp96DNURJo=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/AwQB-tOzeX5fBd8-BBCRbQ==/D8Tak1hVxTb8DpcZn3DD7oUhC2z8-cE8G9ZC4KdF0mA=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/X%207Z9B2pXUlGPTcXNKgVRw==/fDAdzca8hC8YDFx5LZodVRB4YUVeN63EqseoNJkold8=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/mc9TmQh9Xfe%208hT7Ve2E8A==/lpxSpbV37LlFmeXSmDNlpyLklI2%20hzS80b7r%20bDHJPw=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/COFi0TuIQWd9zZOyS6PqRQ==/DL9FOaH7xDl5ACsEeTSwYECMACABFD2ZZs13uwh8A9o=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/V25Ap%20BDeV8l3FjhtFo2pg==/THMwNCkI0-UXSljMaDMQj-Nl1RYxVOS4wCWhNwVYk2M=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/qC-0cGE3g8jZe2y46ZbxVw==/R4FFeMdB5KUSOKe5CLEJQulu7J6tV0Nrf1vB2t8-4uY=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/s%20tB51io4zVoLGLA%20O98Vw==/uD5ETsoxMMoYGiXvFmqu7vYR2Q4BMs1NHZ%2088LS3xiI=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/B1rEh3rTD-e-9UJUfdBAcA==/mPiyC7qIRnaw2m%209kAJJjzC3e-UhsSP8h8a37raOehQ=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/A3leL7X6-KXH3oQh-BP6cw==/mmLSkktFSCHskBrqjcELfdKCD5J7RxvYG0d%20DUxpeXo=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/u3ZIienU%20r3aIPY%20CvWN8A==/qHq55yrJwNtHqpKW-tctJuUJH8YdRuiYnecxeudvBYU=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/mZBLTRuF4PlGp%20-JY55riA==/gdY7MdBfYVz7Zs8vF8ZBWtOVSUp725WEkJBCM2Fgi3k=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/cRgMTGmufu4IBrQY5imnIg==/5bulivqJdn7R0gvX1Od%20rErPgz1fOJzxPLRFCnJ4hSM=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/smEQtwhVOIg2kw5Pntp3Ow==/jpNRBGHokmbhd6uh8yUSDTaHtdRaY8Oo%20RfajeuvPbA=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/d6WBcqitkE5V2gqT36wFkg==/i-YgTECLR0WodRaesNyf-S6IN5blYa3Stlc83tbp8kQ=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/ZWPtnn-3lPhTUPrwxq3z8w==/1qD9ynLzQkk7lZx-Lkr8sbF4scVgyXRSwDwghShak3I=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/7p29SRUverfi%20l86flsdag==/Ac8NQk%20FHCn3z0AvvNY24xO4sVZK2B1aIQcqM3UnCIk=</t>
+  </si>
+  <si>
+    <t>http://localhost:4034/Quiz/Index/em-lrAVPnbWa6kD%20p2fxdQ==/SI5VGWSD-Pmzgpdh3SNrTGKgX1GAJT6b-nog32rn0sg=</t>
   </si>
 </sst>
 </file>
@@ -458,7 +557,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1">
